--- a/Tabelas Censo 07-02-2025.xlsx
+++ b/Tabelas Censo 07-02-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar_macieira\Desktop\Usiminas\Nescon\censo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9EB66C-01F3-41F0-840A-3F3A79C14390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689EC0A7-72DC-4592-9ED0-A7198CD36537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,13 +275,13 @@
     <t>Tabela 15</t>
   </si>
   <si>
-    <t>120. Nesta UBS, são realizadas reuniões das demais equipes da UBS com os profissionais da equipe multiprofissional (eMulti)?</t>
-  </si>
-  <si>
     <t>Tabela 16</t>
   </si>
   <si>
     <t>v126. Estratégia de comunicação com os usuários</t>
+  </si>
+  <si>
+    <t>120.2.6. Teleconsulta</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -542,49 +542,58 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,7 +890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:DO19"/>
+  <dimension ref="B1:DR19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
@@ -907,588 +916,600 @@
     <col min="19" max="19" width="6.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.69921875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.59765625" customWidth="1"/>
-    <col min="32" max="32" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="6" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.8984375" style="52" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.69921875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.59765625" customWidth="1"/>
+    <col min="33" max="33" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.69921875" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="6" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="6.8984375" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="5" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="6.8984375" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="5" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="4" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="5" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="6.8984375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="4" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="6.8984375" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="4" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="6" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="16.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="33.19921875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="64.09765625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="33" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="42.19921875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="34.8984375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="16.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="15.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="73.296875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="16.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="15.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="47.796875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="39.69921875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="52.69921875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="109.09765625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="46.796875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="4" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="6" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="33.19921875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="16.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="64.09765625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="33" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="42.19921875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="34.8984375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="16.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="15.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="73.296875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="16.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="15.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="47.796875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="39.69921875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="52.69921875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="46.796875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:119" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="2:122" x14ac:dyDescent="0.3">
+      <c r="B1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="4"/>
+      <c r="X1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="AA1" s="36" t="s">
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AB1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AE1" s="36" t="s">
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AF1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AZ1" s="36" t="s">
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="3"/>
+      <c r="BB1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
-      <c r="BJ1" s="36"/>
-      <c r="BK1" s="36"/>
-      <c r="BL1" s="36"/>
-      <c r="BM1" s="36"/>
-      <c r="BN1" s="36"/>
-      <c r="BO1" s="36"/>
-      <c r="BP1" s="36"/>
-      <c r="BQ1" s="36"/>
-      <c r="BR1" s="36"/>
-      <c r="BS1" s="36"/>
-      <c r="BU1" s="36" t="s">
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
+      <c r="BQ1" s="35"/>
+      <c r="BR1" s="35"/>
+      <c r="BS1" s="35"/>
+      <c r="BT1" s="35"/>
+      <c r="BU1" s="35"/>
+      <c r="BV1" s="3"/>
+      <c r="BX1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="BV1" s="36"/>
-      <c r="BW1" s="36"/>
-      <c r="BY1" s="36" t="s">
+      <c r="BY1" s="35"/>
+      <c r="BZ1" s="35"/>
+      <c r="CB1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BZ1" s="36"/>
-      <c r="CA1" s="36"/>
-      <c r="CC1" s="36" t="s">
+      <c r="CC1" s="35"/>
+      <c r="CD1" s="35"/>
+      <c r="CF1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="CD1" s="36"/>
-      <c r="CE1" s="36"/>
-      <c r="CG1" s="36" t="s">
+      <c r="CG1" s="35"/>
+      <c r="CH1" s="35"/>
+      <c r="CJ1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="CH1" s="36"/>
-      <c r="CI1" s="36"/>
-      <c r="CK1" s="36" t="s">
+      <c r="CK1" s="35"/>
+      <c r="CL1" s="35"/>
+      <c r="CN1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="CL1" s="36"/>
-      <c r="CM1" s="36"/>
-      <c r="CO1" s="35" t="s">
+      <c r="CO1" s="35"/>
+      <c r="CP1" s="35"/>
+      <c r="CR1" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="CP1" s="35"/>
-      <c r="CQ1" s="35"/>
-      <c r="CS1" s="35" t="s">
+      <c r="CS1" s="37"/>
+      <c r="CT1" s="37"/>
+      <c r="CV1" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="CT1" s="35"/>
-      <c r="CU1" s="35"/>
-      <c r="CW1" s="36" t="s">
+      <c r="CW1" s="37"/>
+      <c r="CX1" s="37"/>
+      <c r="CZ1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="CX1" s="36"/>
-      <c r="CY1" s="36"/>
-      <c r="DA1" s="36" t="s">
+      <c r="DA1" s="35"/>
+      <c r="DB1" s="35"/>
+      <c r="DD1" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="DB1" s="36"/>
-      <c r="DC1" s="36"/>
-      <c r="DE1" s="36" t="s">
+      <c r="DE1" s="35"/>
+      <c r="DF1" s="35"/>
+      <c r="DH1" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="DF1" s="36"/>
-      <c r="DG1" s="36"/>
-      <c r="DI1" s="36" t="s">
+      <c r="DI1" s="35"/>
+      <c r="DJ1" s="35"/>
+      <c r="DL1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="DJ1" s="36"/>
-      <c r="DK1" s="36"/>
-      <c r="DM1" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="DN1" s="36"/>
-      <c r="DO1" s="36"/>
+      <c r="DM1" s="35"/>
+      <c r="DN1" s="35"/>
+      <c r="DP1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="DQ1" s="35"/>
+      <c r="DR1" s="35"/>
     </row>
-    <row r="2" spans="2:119" x14ac:dyDescent="0.3">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="38"/>
-      <c r="BG2" s="38"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
-      <c r="BJ2" s="38"/>
-      <c r="BK2" s="38"/>
-      <c r="BL2" s="38"/>
-      <c r="BM2" s="38"/>
-      <c r="BN2" s="38"/>
-      <c r="BO2" s="38"/>
-      <c r="BP2" s="38"/>
-      <c r="BQ2" s="38"/>
-      <c r="BR2" s="38"/>
-      <c r="BS2" s="38"/>
-      <c r="BU2" s="36"/>
-      <c r="BV2" s="36"/>
-      <c r="BW2" s="36"/>
-      <c r="BY2" s="36"/>
-      <c r="BZ2" s="36"/>
-      <c r="CA2" s="36"/>
-      <c r="CC2" s="36"/>
-      <c r="CD2" s="36"/>
-      <c r="CE2" s="36"/>
-      <c r="CG2" s="36"/>
-      <c r="CH2" s="36"/>
-      <c r="CI2" s="36"/>
-      <c r="CK2" s="36"/>
-      <c r="CL2" s="36"/>
-      <c r="CM2" s="36"/>
+    <row r="2" spans="2:122" x14ac:dyDescent="0.3">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="50"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="47"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="39"/>
+      <c r="BD2" s="39"/>
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="39"/>
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="39"/>
+      <c r="BJ2" s="39"/>
+      <c r="BK2" s="39"/>
+      <c r="BL2" s="39"/>
+      <c r="BM2" s="39"/>
+      <c r="BN2" s="39"/>
+      <c r="BO2" s="39"/>
+      <c r="BP2" s="39"/>
+      <c r="BQ2" s="39"/>
+      <c r="BR2" s="39"/>
+      <c r="BS2" s="39"/>
+      <c r="BT2" s="39"/>
+      <c r="BU2" s="39"/>
+      <c r="BV2" s="47"/>
+      <c r="BX2" s="35"/>
+      <c r="BY2" s="35"/>
+      <c r="BZ2" s="35"/>
+      <c r="CB2" s="35"/>
+      <c r="CC2" s="35"/>
+      <c r="CD2" s="35"/>
+      <c r="CF2" s="35"/>
+      <c r="CG2" s="35"/>
+      <c r="CH2" s="35"/>
+      <c r="CJ2" s="35"/>
+      <c r="CK2" s="35"/>
+      <c r="CL2" s="35"/>
+      <c r="CN2" s="35"/>
       <c r="CO2" s="35"/>
       <c r="CP2" s="35"/>
-      <c r="CQ2" s="35"/>
-      <c r="CS2" s="35"/>
-      <c r="CT2" s="35"/>
-      <c r="CU2" s="35"/>
-      <c r="CW2" s="36"/>
-      <c r="CX2" s="36"/>
-      <c r="CY2" s="36"/>
-      <c r="DA2" s="36"/>
-      <c r="DB2" s="36"/>
-      <c r="DC2" s="36"/>
-      <c r="DE2" s="36"/>
-      <c r="DF2" s="36"/>
-      <c r="DG2" s="36"/>
-      <c r="DI2" s="36"/>
-      <c r="DJ2" s="36"/>
-      <c r="DK2" s="36"/>
-      <c r="DM2" s="36"/>
-      <c r="DN2" s="36"/>
-      <c r="DO2" s="36"/>
+      <c r="CR2" s="37"/>
+      <c r="CS2" s="37"/>
+      <c r="CT2" s="37"/>
+      <c r="CV2" s="37"/>
+      <c r="CW2" s="37"/>
+      <c r="CX2" s="37"/>
+      <c r="CZ2" s="35"/>
+      <c r="DA2" s="35"/>
+      <c r="DB2" s="35"/>
+      <c r="DD2" s="35"/>
+      <c r="DE2" s="35"/>
+      <c r="DF2" s="35"/>
+      <c r="DH2" s="35"/>
+      <c r="DI2" s="35"/>
+      <c r="DJ2" s="35"/>
+      <c r="DL2" s="35"/>
+      <c r="DM2" s="35"/>
+      <c r="DN2" s="35"/>
+      <c r="DP2" s="35"/>
+      <c r="DQ2" s="35"/>
+      <c r="DR2" s="35"/>
     </row>
-    <row r="3" spans="2:119" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
+    <row r="3" spans="2:122" x14ac:dyDescent="0.3">
+      <c r="B3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40">
         <v>0</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="41">
+      <c r="E3" s="40"/>
+      <c r="F3" s="44">
         <v>1</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="39">
+      <c r="G3" s="45"/>
+      <c r="H3" s="40">
         <v>2</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="41">
+      <c r="I3" s="40"/>
+      <c r="J3" s="44">
         <v>3</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="39">
+      <c r="K3" s="45"/>
+      <c r="L3" s="40">
         <v>4</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="41">
+      <c r="M3" s="40"/>
+      <c r="N3" s="44">
         <v>5</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="41">
+      <c r="O3" s="45"/>
+      <c r="P3" s="44">
         <v>6</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="39" t="s">
+      <c r="Q3" s="45"/>
+      <c r="R3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="39"/>
-      <c r="T3" s="43" t="s">
+      <c r="S3" s="40"/>
+      <c r="T3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="39" t="s">
+      <c r="U3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="28" t="s">
+      <c r="V3" s="51"/>
+      <c r="X3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="28" t="s">
+      <c r="AB3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AD3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="39" t="s">
+      <c r="AF3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39">
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40">
         <v>0</v>
       </c>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="41">
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="44">
         <v>1</v>
       </c>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="39">
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="40">
         <v>2</v>
       </c>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="41">
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="44">
         <v>3</v>
       </c>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="39">
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="40">
         <v>4</v>
       </c>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="41">
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="44">
         <v>5</v>
       </c>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="41">
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="44">
         <v>6</v>
       </c>
-      <c r="AT3" s="42"/>
-      <c r="AU3" s="39" t="s">
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AV3" s="39"/>
-      <c r="AW3" s="43" t="s">
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AX3" s="39" t="s">
+      <c r="AY3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="AZ3" s="39" t="s">
+      <c r="AZ3" s="48"/>
+      <c r="BB3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="BA3" s="39"/>
-      <c r="BB3" s="39" t="s">
+      <c r="BC3" s="40"/>
+      <c r="BD3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="BC3" s="39"/>
-      <c r="BD3" s="41" t="s">
+      <c r="BE3" s="40"/>
+      <c r="BF3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="39" t="s">
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="BG3" s="39"/>
-      <c r="BH3" s="41" t="s">
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="39" t="s">
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="BK3" s="39"/>
-      <c r="BL3" s="41" t="s">
+      <c r="BM3" s="40"/>
+      <c r="BN3" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="41" t="s">
+      <c r="BO3" s="45"/>
+      <c r="BP3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="39" t="s">
+      <c r="BQ3" s="45"/>
+      <c r="BR3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="BQ3" s="39"/>
-      <c r="BR3" s="43" t="s">
+      <c r="BS3" s="40"/>
+      <c r="BT3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="BS3" s="39" t="s">
+      <c r="BU3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="BU3" s="31" t="s">
+      <c r="BV3" s="48"/>
+      <c r="BX3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="BV3" s="5" t="s">
+      <c r="BY3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="BW3" s="6" t="s">
+      <c r="BZ3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="BY3" s="31" t="s">
+      <c r="CB3" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="BZ3" s="5" t="s">
+      <c r="CC3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="CA3" s="6" t="s">
+      <c r="CD3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CC3" s="31" t="s">
+      <c r="CF3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="CD3" s="5" t="s">
+      <c r="CG3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="CE3" s="6" t="s">
+      <c r="CH3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CG3" s="31" t="s">
+      <c r="CJ3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="CH3" s="5" t="s">
+      <c r="CK3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="CI3" s="6" t="s">
+      <c r="CL3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CK3" s="31" t="s">
+      <c r="CN3" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="CL3" s="5" t="s">
+      <c r="CO3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="CM3" s="6" t="s">
+      <c r="CP3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CO3" s="31" t="s">
+      <c r="CR3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="CP3" s="5" t="s">
+      <c r="CS3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="CQ3" s="6" t="s">
+      <c r="CT3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CS3" s="31" t="s">
+      <c r="CV3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="CT3" s="5" t="s">
+      <c r="CW3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="CU3" s="6" t="s">
+      <c r="CX3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="CW3" s="31" t="s">
+      <c r="CZ3" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="CX3" s="5" t="s">
+      <c r="DA3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="CY3" s="6" t="s">
+      <c r="DB3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="DA3" s="31" t="s">
+      <c r="DD3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="DB3" s="5" t="s">
+      <c r="DE3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="DC3" s="6" t="s">
+      <c r="DF3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="DE3" s="31" t="s">
+      <c r="DH3" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="DF3" s="5" t="s">
+      <c r="DI3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="DG3" s="6" t="s">
+      <c r="DJ3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="DI3" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="DJ3" s="5" t="s">
+      <c r="DL3" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="DM3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="DK3" s="6" t="s">
+      <c r="DN3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="DM3" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="DN3" s="5" t="s">
+      <c r="DP3" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="DQ3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="DO3" s="6" t="s">
+      <c r="DR3" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:119" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+    <row r="4" spans="2:122" x14ac:dyDescent="0.3">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1537,114 +1558,110 @@
       <c r="S4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="44"/>
-      <c r="U4" s="40"/>
-      <c r="W4" s="9" t="s">
+      <c r="T4" s="42"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="51"/>
+      <c r="X4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="22">
+      <c r="Y4" s="22">
         <v>8143</v>
       </c>
-      <c r="Y4" s="23">
+      <c r="Z4" s="23">
         <v>0.181289934768573</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AB4" s="22">
+      <c r="AC4" s="22">
         <v>33751</v>
       </c>
-      <c r="AC4" s="23">
+      <c r="AD4" s="23">
         <v>0.75167590922251204</v>
       </c>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="5" t="s">
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AI4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AJ4" s="8" t="s">
+      <c r="AK4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AL4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AL4" s="6" t="s">
+      <c r="AM4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AN4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AN4" s="8" t="s">
+      <c r="AO4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AO4" s="5" t="s">
+      <c r="AP4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AP4" s="6" t="s">
+      <c r="AQ4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AQ4" s="7" t="s">
+      <c r="AR4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AR4" s="8" t="s">
+      <c r="AS4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AS4" s="7" t="s">
+      <c r="AT4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AT4" s="8" t="s">
+      <c r="AU4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AU4" s="5" t="s">
+      <c r="AV4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AV4" s="6" t="s">
+      <c r="AW4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="40"/>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="5" t="s">
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="48"/>
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="43"/>
+      <c r="BD4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="BC4" s="6" t="s">
+      <c r="BE4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="BD4" s="7" t="s">
+      <c r="BF4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="BE4" s="8" t="s">
+      <c r="BG4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="BF4" s="5" t="s">
+      <c r="BH4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="BG4" s="6" t="s">
+      <c r="BI4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="BH4" s="7" t="s">
+      <c r="BJ4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="BI4" s="8" t="s">
+      <c r="BK4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="BJ4" s="5" t="s">
+      <c r="BL4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="BK4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="8" t="s">
+      <c r="BM4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="BN4" s="7" t="s">
@@ -1653,125 +1670,132 @@
       <c r="BO4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="BP4" s="5" t="s">
+      <c r="BP4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="BQ4" s="6" t="s">
+      <c r="BQ4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="BR4" s="44"/>
-      <c r="BS4" s="40"/>
-      <c r="BU4" s="9" t="s">
+      <c r="BR4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="42"/>
+      <c r="BU4" s="43"/>
+      <c r="BV4" s="48"/>
+      <c r="BX4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="BV4" s="10">
+      <c r="BY4" s="10">
         <v>36398</v>
       </c>
-      <c r="BW4" s="11">
+      <c r="BZ4" s="11">
         <v>0.80997841422435901</v>
       </c>
-      <c r="BY4" s="9" t="s">
+      <c r="CB4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="BZ4" s="10">
+      <c r="CC4" s="10">
         <v>3515</v>
       </c>
-      <c r="CA4" s="11">
+      <c r="CD4" s="11">
         <v>0.21131417578453801</v>
       </c>
-      <c r="CC4" s="9" t="s">
+      <c r="CF4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="CD4" s="10">
+      <c r="CG4" s="10">
         <v>21496</v>
       </c>
-      <c r="CE4" s="11">
+      <c r="CH4" s="11">
         <v>0.478379882051853</v>
       </c>
-      <c r="CG4" s="32" t="s">
+      <c r="CJ4" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="CH4" s="10">
+      <c r="CK4" s="10">
         <v>32954</v>
       </c>
-      <c r="CI4" s="11">
+      <c r="CL4" s="11">
         <v>0.73333778400872296</v>
       </c>
-      <c r="CK4" s="9" t="s">
+      <c r="CN4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="CL4" s="10">
+      <c r="CO4" s="10">
         <v>5695</v>
       </c>
-      <c r="CM4" s="11">
+      <c r="CP4" s="11">
         <v>0.12674426368148101</v>
       </c>
-      <c r="CO4" t="s">
+      <c r="CR4" t="s">
         <v>25</v>
       </c>
-      <c r="CP4" s="1">
+      <c r="CS4" s="1">
         <v>5702</v>
       </c>
-      <c r="CQ4" s="2">
+      <c r="CT4" s="2">
         <v>0.12688875536862701</v>
       </c>
-      <c r="CS4" t="s">
+      <c r="CV4" t="s">
         <v>25</v>
       </c>
-      <c r="CT4" s="1">
+      <c r="CW4" s="1">
         <v>12391</v>
       </c>
-      <c r="CU4" s="2">
+      <c r="CX4" s="2">
         <v>0.27574159378685698</v>
       </c>
-      <c r="CW4" s="9" t="s">
+      <c r="CZ4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="CX4" s="10">
+      <c r="DA4" s="10">
         <v>6059</v>
       </c>
-      <c r="CY4" s="11">
+      <c r="DB4" s="11">
         <v>0.16711716681376901</v>
       </c>
-      <c r="DA4" s="9" t="s">
+      <c r="DD4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="DB4" s="10">
+      <c r="DE4" s="10">
         <v>10342</v>
       </c>
-      <c r="DC4" s="11">
+      <c r="DF4" s="11">
         <v>0.236145678730449</v>
       </c>
-      <c r="DE4" s="9" t="s">
+      <c r="DH4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="DF4" s="10">
+      <c r="DI4" s="10">
         <v>7784</v>
       </c>
-      <c r="DG4" s="11">
+      <c r="DJ4" s="11">
         <v>0.173220286178428</v>
       </c>
-      <c r="DI4" s="9" t="s">
+      <c r="DL4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="DJ4" s="10">
-        <v>3753</v>
-      </c>
-      <c r="DK4" s="11">
-        <v>0.198099762470309</v>
-      </c>
-      <c r="DM4" s="9" t="s">
+      <c r="DM4" s="10">
+        <v>14139</v>
+      </c>
+      <c r="DN4" s="11">
+        <v>0.93068720379146896</v>
+      </c>
+      <c r="DP4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="DN4" s="10">
+      <c r="DQ4" s="10">
         <v>8494</v>
       </c>
-      <c r="DO4" s="11">
+      <c r="DR4" s="11">
         <v>0.18902018381289401</v>
       </c>
     </row>
-    <row r="5" spans="2:119" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="45" t="s">
+    <row r="5" spans="2:122" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -1825,264 +1849,276 @@
       <c r="S5" s="11">
         <v>0.58051529790660195</v>
       </c>
-      <c r="T5" s="37" t="s">
+      <c r="T5" s="46" t="s">
         <v>8</v>
       </c>
       <c r="U5" s="10">
         <f>SUM(D5,F5,H5,J5,L5,N5,P5,R5)</f>
         <v>9934</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="V5" s="50">
+        <f>U5/U10</f>
+        <v>0.22114378575721821</v>
+      </c>
+      <c r="X5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="21">
+      <c r="Y5" s="21">
         <v>36774</v>
       </c>
-      <c r="Y5" s="24">
+      <c r="Z5" s="24">
         <v>0.81871006523142698</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AB5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AB5" s="21">
+      <c r="AC5" s="21">
         <v>11150</v>
       </c>
-      <c r="AC5" s="24">
+      <c r="AD5" s="24">
         <v>0.24832409077748799</v>
       </c>
-      <c r="AE5" s="45" t="s">
+      <c r="AF5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="AF5" s="9" t="s">
+      <c r="AG5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AH5" s="10">
         <v>7457</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AI5" s="11">
         <v>0.65631050871325503</v>
       </c>
-      <c r="AI5" s="15">
+      <c r="AJ5" s="15">
         <v>9325</v>
       </c>
-      <c r="AJ5" s="18">
+      <c r="AK5" s="18">
         <v>0.43666588620931901</v>
       </c>
-      <c r="AK5" s="10">
+      <c r="AL5" s="10">
         <v>3351</v>
       </c>
-      <c r="AL5" s="11">
+      <c r="AM5" s="11">
         <v>0.46444906444906398</v>
       </c>
-      <c r="AM5" s="15">
+      <c r="AN5" s="15">
         <v>1268</v>
       </c>
-      <c r="AN5" s="18">
+      <c r="AO5" s="18">
         <v>0.50237717908082402</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AP5" s="10">
         <v>586</v>
       </c>
-      <c r="AP5" s="11">
+      <c r="AQ5" s="11">
         <v>0.54009216589861797</v>
       </c>
-      <c r="AQ5" s="15">
+      <c r="AR5" s="15">
         <v>283</v>
       </c>
-      <c r="AR5" s="18">
+      <c r="AS5" s="18">
         <v>0.588357588357588</v>
       </c>
-      <c r="AS5" s="15">
+      <c r="AT5" s="15">
         <v>193</v>
       </c>
-      <c r="AT5" s="18">
+      <c r="AU5" s="18">
         <v>0.59021406727828796</v>
       </c>
-      <c r="AU5" s="10">
+      <c r="AV5" s="10">
         <v>331</v>
       </c>
-      <c r="AV5" s="11">
+      <c r="AW5" s="11">
         <v>0.59107142857142903</v>
       </c>
-      <c r="AW5" s="37" t="s">
+      <c r="AX5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AX5" s="10">
-        <f>SUM(AG5,AI5,AK5,AM5,AO5,AQ5,AS5,AU5)</f>
+      <c r="AY5" s="10">
+        <f>SUM(AH5,AJ5,AL5,AN5,AP5,AR5,AT5,AV5)</f>
         <v>22794</v>
       </c>
-      <c r="AZ5" s="45" t="s">
+      <c r="AZ5" s="50">
+        <f>AY5/AY10</f>
+        <v>0.50755973190229131</v>
+      </c>
+      <c r="BB5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="BA5" s="9" t="s">
+      <c r="BC5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="BB5" s="10">
+      <c r="BD5" s="10">
         <v>7457</v>
       </c>
-      <c r="BC5" s="11">
+      <c r="BE5" s="11">
         <v>0.65631050871325503</v>
       </c>
-      <c r="BD5" s="15">
+      <c r="BF5" s="15">
         <v>9325</v>
       </c>
-      <c r="BE5" s="18">
+      <c r="BG5" s="18">
         <v>0.43666588620931901</v>
       </c>
-      <c r="BF5" s="10">
+      <c r="BH5" s="10">
         <v>3351</v>
       </c>
-      <c r="BG5" s="11">
+      <c r="BI5" s="11">
         <v>0.46444906444906398</v>
       </c>
-      <c r="BH5" s="15">
+      <c r="BJ5" s="15">
         <v>1268</v>
       </c>
-      <c r="BI5" s="18">
+      <c r="BK5" s="18">
         <v>0.50237717908082402</v>
       </c>
-      <c r="BJ5" s="10">
+      <c r="BL5" s="10">
         <v>586</v>
       </c>
-      <c r="BK5" s="11">
+      <c r="BM5" s="11">
         <v>0.54009216589861797</v>
       </c>
-      <c r="BL5" s="15">
+      <c r="BN5" s="15">
         <v>283</v>
       </c>
-      <c r="BM5" s="18">
+      <c r="BO5" s="18">
         <v>0.588357588357588</v>
       </c>
-      <c r="BN5" s="15">
+      <c r="BP5" s="15">
         <v>193</v>
       </c>
-      <c r="BO5" s="18">
+      <c r="BQ5" s="18">
         <v>0.59021406727828796</v>
       </c>
-      <c r="BP5" s="10">
+      <c r="BR5" s="10">
         <v>331</v>
       </c>
-      <c r="BQ5" s="11">
+      <c r="BS5" s="11">
         <v>0.59107142857142903</v>
       </c>
-      <c r="BR5" s="37" t="s">
+      <c r="BT5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="BS5" s="10">
-        <f>SUM(BB5,BD5,BF5,BH5,BJ5,BL5,BN5,BP5)</f>
+      <c r="BU5" s="10">
+        <f>SUM(BD5,BF5,BH5,BJ5,BL5,BN5,BP5,BR5)</f>
         <v>22794</v>
       </c>
-      <c r="BU5" t="s">
+      <c r="BV5" s="50">
+        <f>BU5/BU10</f>
+        <v>0.50755973190229131</v>
+      </c>
+      <c r="BX5" t="s">
         <v>4</v>
       </c>
-      <c r="BV5" s="3">
+      <c r="BY5" s="3">
         <v>8289</v>
       </c>
-      <c r="BW5" s="4">
+      <c r="BZ5" s="4">
         <v>0.18445824153815299</v>
       </c>
-      <c r="BY5" s="47" t="s">
+      <c r="CB5" t="s">
         <v>3</v>
       </c>
-      <c r="BZ5" s="48">
+      <c r="CC5" s="3">
         <v>5629</v>
       </c>
-      <c r="CA5" s="49">
+      <c r="CD5" s="4">
         <v>0.33840327041000401</v>
       </c>
-      <c r="CC5" s="12" t="s">
+      <c r="CF5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="CD5" s="13">
+      <c r="CG5" s="13">
         <v>23439</v>
       </c>
-      <c r="CE5" s="14">
+      <c r="CH5" s="14">
         <v>0.521620117948147</v>
       </c>
-      <c r="CG5" s="33" t="s">
+      <c r="CJ5" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="CH5" s="3">
+      <c r="CK5" s="3">
         <v>8827</v>
       </c>
-      <c r="CI5" s="4">
+      <c r="CL5" s="4">
         <v>0.196430558337228</v>
       </c>
-      <c r="CK5" s="12" t="s">
+      <c r="CN5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="CL5" s="13">
+      <c r="CO5" s="13">
         <v>39238</v>
       </c>
-      <c r="CM5" s="14">
+      <c r="CP5" s="14">
         <v>0.87325573631851905</v>
       </c>
-      <c r="CO5" t="s">
+      <c r="CR5" t="s">
         <v>26</v>
       </c>
-      <c r="CP5" s="1">
+      <c r="CS5" s="1">
         <v>496</v>
       </c>
-      <c r="CQ5" s="2">
+      <c r="CT5" s="2">
         <v>1.10376749671763E-2</v>
       </c>
-      <c r="CS5" t="s">
+      <c r="CV5" t="s">
         <v>26</v>
       </c>
-      <c r="CT5" s="1">
+      <c r="CW5" s="1">
         <v>16687</v>
       </c>
-      <c r="CU5" s="2">
+      <c r="CX5" s="2">
         <v>0.37134210116385202</v>
       </c>
-      <c r="CW5" s="47" t="s">
+      <c r="CZ5" t="s">
         <v>3</v>
       </c>
-      <c r="CX5" s="48">
+      <c r="DA5" s="3">
         <v>18268</v>
       </c>
-      <c r="CY5" s="49">
+      <c r="DB5" s="4">
         <v>0.50386142983230398</v>
       </c>
-      <c r="DA5" s="47" t="s">
+      <c r="DD5" t="s">
         <v>3</v>
       </c>
-      <c r="DB5" s="48">
+      <c r="DE5" s="3">
         <v>13112</v>
       </c>
-      <c r="DC5" s="49">
+      <c r="DF5" s="4">
         <v>0.29939490809453101</v>
       </c>
-      <c r="DE5" t="s">
+      <c r="DH5" t="s">
         <v>4</v>
       </c>
-      <c r="DF5" s="3">
+      <c r="DI5" s="3">
         <v>13694</v>
       </c>
-      <c r="DG5" s="4">
+      <c r="DJ5" s="4">
         <v>0.30473774395264502</v>
       </c>
-      <c r="DI5" s="12" t="s">
+      <c r="DL5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="DJ5" s="13">
-        <v>15192</v>
-      </c>
-      <c r="DK5" s="14">
-        <v>0.80190023752969097</v>
-      </c>
-      <c r="DM5" s="47" t="s">
+      <c r="DM5" s="13">
+        <v>1053</v>
+      </c>
+      <c r="DN5" s="14">
+        <v>6.93127962085308E-2</v>
+      </c>
+      <c r="DP5" t="s">
         <v>3</v>
       </c>
-      <c r="DN5" s="48">
+      <c r="DQ5" s="3">
         <v>30716</v>
       </c>
-      <c r="DO5" s="49">
+      <c r="DR5" s="4">
         <v>0.68353472639473001</v>
       </c>
     </row>
-    <row r="6" spans="2:119" x14ac:dyDescent="0.3">
-      <c r="B6" s="35"/>
+    <row r="6" spans="2:122" x14ac:dyDescent="0.3">
+      <c r="B6" s="37"/>
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -2134,264 +2170,276 @@
       <c r="S6" s="4">
         <v>0.16505636070853499</v>
       </c>
-      <c r="T6" s="36"/>
+      <c r="T6" s="35"/>
       <c r="U6" s="3">
         <f t="shared" ref="U6:U9" si="0">SUM(D6,F6,H6,J6,L6,N6,P6,R6)</f>
         <v>12280</v>
       </c>
-      <c r="W6" s="25" t="s">
+      <c r="V6" s="4">
+        <f>U6/U10</f>
+        <v>0.27336880300972821</v>
+      </c>
+      <c r="X6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="26">
-        <f>SUM(X4:X5)</f>
+      <c r="Y6" s="26">
+        <f>SUM(Y4:Y5)</f>
         <v>44917</v>
       </c>
-      <c r="Y6" s="27">
-        <f>SUM(Y4:Y5)</f>
+      <c r="Z6" s="27">
+        <f>SUM(Z4:Z5)</f>
         <v>1</v>
       </c>
-      <c r="AA6" s="25" t="s">
+      <c r="AB6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AB6" s="26">
-        <f>SUM(AB4:AB5)</f>
+      <c r="AC6" s="26">
+        <f>SUM(AC4:AC5)</f>
         <v>44901</v>
       </c>
-      <c r="AC6" s="27">
-        <f>SUM(AC4:AC5)</f>
+      <c r="AD6" s="27">
+        <f>SUM(AD4:AD5)</f>
         <v>1</v>
       </c>
-      <c r="AE6" s="35"/>
-      <c r="AF6" t="s">
+      <c r="AF6" s="37"/>
+      <c r="AG6" t="s">
         <v>3</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AH6" s="3">
         <v>1345</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AI6" s="4">
         <v>0.118377046294666</v>
       </c>
-      <c r="AI6" s="16">
+      <c r="AJ6" s="16">
         <v>714</v>
       </c>
-      <c r="AJ6" s="19">
+      <c r="AK6" s="19">
         <v>3.34347927885741E-2</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AL6" s="3">
         <v>353</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AM6" s="4">
         <v>4.8925848925848898E-2</v>
       </c>
-      <c r="AM6" s="16">
+      <c r="AN6" s="16">
         <v>49</v>
       </c>
-      <c r="AN6" s="19">
+      <c r="AO6" s="19">
         <v>1.9413629160063402E-2</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AP6" s="3">
         <v>23</v>
       </c>
-      <c r="AP6" s="4">
+      <c r="AQ6" s="4">
         <v>2.11981566820276E-2</v>
       </c>
-      <c r="AQ6" s="16">
+      <c r="AR6" s="16">
         <v>12</v>
       </c>
-      <c r="AR6" s="19">
+      <c r="AS6" s="19">
         <v>2.4948024948024901E-2</v>
       </c>
-      <c r="AS6" s="16">
+      <c r="AT6" s="16">
         <v>5</v>
       </c>
-      <c r="AT6" s="19">
+      <c r="AU6" s="19">
         <v>1.5290519877675801E-2</v>
       </c>
-      <c r="AU6" s="3">
+      <c r="AV6" s="3">
         <v>32</v>
       </c>
-      <c r="AV6" s="4">
+      <c r="AW6" s="4">
         <v>5.7142857142857099E-2</v>
       </c>
-      <c r="AW6" s="36"/>
-      <c r="AX6" s="3">
-        <f>SUM(AG6,AI6,AK6,AM6,AO6,AQ6,AS6,AU6)</f>
+      <c r="AX6" s="35"/>
+      <c r="AY6" s="3">
+        <f>SUM(AH6,AJ6,AL6,AN6,AP6,AR6,AT6,AV6)</f>
         <v>2533</v>
       </c>
-      <c r="AZ6" s="35"/>
-      <c r="BA6" t="s">
+      <c r="AZ6" s="4">
+        <f>AY6/AY10</f>
+        <v>5.6402948184105635E-2</v>
+      </c>
+      <c r="BB6" s="37"/>
+      <c r="BC6" t="s">
         <v>3</v>
       </c>
-      <c r="BB6" s="3">
+      <c r="BD6" s="3">
         <v>1345</v>
       </c>
-      <c r="BC6" s="4">
+      <c r="BE6" s="4">
         <v>0.118377046294666</v>
       </c>
-      <c r="BD6" s="16">
+      <c r="BF6" s="16">
         <v>714</v>
       </c>
-      <c r="BE6" s="19">
+      <c r="BG6" s="19">
         <v>3.34347927885741E-2</v>
       </c>
-      <c r="BF6" s="3">
+      <c r="BH6" s="3">
         <v>353</v>
       </c>
-      <c r="BG6" s="4">
+      <c r="BI6" s="4">
         <v>4.8925848925848898E-2</v>
       </c>
-      <c r="BH6" s="16">
+      <c r="BJ6" s="16">
         <v>49</v>
       </c>
-      <c r="BI6" s="19">
+      <c r="BK6" s="19">
         <v>1.9413629160063402E-2</v>
       </c>
-      <c r="BJ6" s="3">
+      <c r="BL6" s="3">
         <v>23</v>
       </c>
-      <c r="BK6" s="4">
+      <c r="BM6" s="4">
         <v>2.11981566820276E-2</v>
       </c>
-      <c r="BL6" s="16">
+      <c r="BN6" s="16">
         <v>12</v>
       </c>
-      <c r="BM6" s="19">
+      <c r="BO6" s="19">
         <v>2.4948024948024901E-2</v>
       </c>
-      <c r="BN6" s="16">
+      <c r="BP6" s="16">
         <v>5</v>
       </c>
-      <c r="BO6" s="19">
+      <c r="BQ6" s="19">
         <v>1.5290519877675801E-2</v>
       </c>
-      <c r="BP6" s="3">
+      <c r="BR6" s="3">
         <v>32</v>
       </c>
-      <c r="BQ6" s="4">
+      <c r="BS6" s="4">
         <v>5.7142857142857099E-2</v>
       </c>
-      <c r="BR6" s="36"/>
-      <c r="BS6" s="3">
-        <f>SUM(BB6,BD6,BF6,BH6,BJ6,BL6,BN6,BP6)</f>
+      <c r="BT6" s="35"/>
+      <c r="BU6" s="3">
+        <f>SUM(BD6,BF6,BH6,BJ6,BL6,BN6,BP6,BR6)</f>
         <v>2533</v>
       </c>
-      <c r="BU6" t="s">
+      <c r="BV6" s="4">
+        <f>BU6/BU10</f>
+        <v>5.6402948184105635E-2</v>
+      </c>
+      <c r="BX6" t="s">
         <v>5</v>
       </c>
-      <c r="BV6" s="3">
+      <c r="BY6" s="3">
         <v>187</v>
       </c>
-      <c r="BW6" s="4">
+      <c r="BZ6" s="4">
         <v>4.1613814896410504E-3</v>
       </c>
-      <c r="BY6" s="47" t="s">
+      <c r="CB6" t="s">
         <v>4</v>
       </c>
-      <c r="BZ6" s="48">
+      <c r="CC6" s="3">
         <v>652</v>
       </c>
-      <c r="CA6" s="49">
+      <c r="CD6" s="4">
         <v>3.9196825778525901E-2</v>
       </c>
-      <c r="CC6" s="25" t="s">
+      <c r="CF6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="CD6" s="29">
-        <f>SUM(CD4:CD5)</f>
+      <c r="CG6" s="29">
+        <f>SUM(CG4:CG5)</f>
         <v>44935</v>
       </c>
-      <c r="CE6" s="30">
-        <f>SUM(CE4:CE5)</f>
+      <c r="CH6" s="30">
+        <f>SUM(CH4:CH5)</f>
         <v>1</v>
       </c>
-      <c r="CG6" s="34" t="s">
+      <c r="CJ6" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="CH6" s="13">
+      <c r="CK6" s="13">
         <v>3156</v>
       </c>
-      <c r="CI6" s="14">
+      <c r="CL6" s="14">
         <v>7.0231657654048998E-2</v>
       </c>
-      <c r="CK6" s="25" t="s">
+      <c r="CN6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="CL6" s="29">
-        <f>SUM(CL4:CL5)</f>
+      <c r="CO6" s="29">
+        <f>SUM(CO4:CO5)</f>
         <v>44933</v>
       </c>
-      <c r="CM6" s="30">
-        <f>SUM(CM4:CM5)</f>
+      <c r="CP6" s="30">
+        <f>SUM(CP4:CP5)</f>
         <v>1</v>
       </c>
-      <c r="CO6" t="s">
+      <c r="CR6" t="s">
         <v>27</v>
       </c>
-      <c r="CP6" s="1">
+      <c r="CS6" s="1">
         <v>394</v>
       </c>
-      <c r="CQ6" s="2">
+      <c r="CT6" s="2">
         <v>8.7678305182811497E-3</v>
       </c>
-      <c r="CS6" t="s">
+      <c r="CV6" t="s">
         <v>27</v>
       </c>
-      <c r="CT6" s="1">
+      <c r="CW6" s="1">
         <v>4740</v>
       </c>
-      <c r="CU6" s="2">
+      <c r="CX6" s="2">
         <v>0.105481006742773</v>
       </c>
-      <c r="CW6" t="s">
+      <c r="CZ6" t="s">
         <v>4</v>
       </c>
-      <c r="CX6" s="3">
+      <c r="DA6" s="3">
         <v>2645</v>
       </c>
-      <c r="CY6" s="4">
+      <c r="DB6" s="4">
         <v>7.29534421888791E-2</v>
       </c>
-      <c r="DA6" t="s">
+      <c r="DD6" t="s">
         <v>4</v>
       </c>
-      <c r="DB6" s="3">
+      <c r="DE6" s="3">
         <v>4123</v>
       </c>
-      <c r="DC6" s="4">
+      <c r="DF6" s="4">
         <v>9.4143167028199595E-2</v>
       </c>
-      <c r="DE6" t="s">
+      <c r="DH6" t="s">
         <v>5</v>
       </c>
-      <c r="DF6" s="3">
+      <c r="DI6" s="3">
         <v>21039</v>
       </c>
-      <c r="DG6" s="4">
+      <c r="DJ6" s="4">
         <v>0.46818879765004301</v>
       </c>
-      <c r="DI6" s="25" t="s">
+      <c r="DL6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="DJ6" s="29">
-        <f>SUM(DJ4:DJ5)</f>
-        <v>18945</v>
-      </c>
-      <c r="DK6" s="30">
-        <f>SUM(DK4:DK5)</f>
-        <v>1</v>
-      </c>
-      <c r="DM6" t="s">
+      <c r="DM6" s="29">
+        <f>SUM(DM4:DM5)</f>
+        <v>15192</v>
+      </c>
+      <c r="DN6" s="30">
+        <f>SUM(DN4:DN5)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="DP6" t="s">
         <v>4</v>
       </c>
-      <c r="DN6" s="3">
+      <c r="DQ6" s="3">
         <v>5573</v>
       </c>
-      <c r="DO6" s="4">
+      <c r="DR6" s="4">
         <v>0.124018069742083</v>
       </c>
     </row>
-    <row r="7" spans="2:119" x14ac:dyDescent="0.3">
-      <c r="B7" s="35"/>
+    <row r="7" spans="2:122" x14ac:dyDescent="0.3">
+      <c r="B7" s="37"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -2443,211 +2491,223 @@
       <c r="S7" s="4">
         <v>8.0515297906602196E-3</v>
       </c>
-      <c r="T7" s="36"/>
+      <c r="T7" s="35"/>
       <c r="U7" s="3">
         <f t="shared" si="0"/>
         <v>11020</v>
       </c>
-      <c r="AE7" s="35"/>
-      <c r="AF7" t="s">
+      <c r="V7" s="4">
+        <f>U7/U10</f>
+        <v>0.24531956100710137</v>
+      </c>
+      <c r="AF7" s="37"/>
+      <c r="AG7" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AH7" s="3">
         <v>959</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AI7" s="4">
         <v>8.4404154198204503E-2</v>
       </c>
-      <c r="AI7" s="16">
+      <c r="AJ7" s="16">
         <v>284</v>
       </c>
-      <c r="AJ7" s="19">
+      <c r="AK7" s="19">
         <v>1.32989932100211E-2</v>
       </c>
-      <c r="AK7" s="3">
+      <c r="AL7" s="3">
         <v>73</v>
       </c>
-      <c r="AL7" s="4">
+      <c r="AM7" s="4">
         <v>1.01178101178101E-2</v>
       </c>
-      <c r="AM7" s="16">
+      <c r="AN7" s="16">
         <v>44</v>
       </c>
-      <c r="AN7" s="19">
+      <c r="AO7" s="19">
         <v>1.7432646592709999E-2</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="AP7" s="3">
         <v>27</v>
       </c>
-      <c r="AP7" s="4">
+      <c r="AQ7" s="4">
         <v>2.4884792626728099E-2</v>
       </c>
-      <c r="AQ7" s="16">
+      <c r="AR7" s="16">
         <v>14</v>
       </c>
-      <c r="AR7" s="19">
+      <c r="AS7" s="19">
         <v>2.9106029106029101E-2</v>
       </c>
-      <c r="AS7" s="16">
+      <c r="AT7" s="16">
         <v>7</v>
       </c>
-      <c r="AT7" s="19">
+      <c r="AU7" s="19">
         <v>2.1406727828746201E-2</v>
       </c>
-      <c r="AU7" s="3">
+      <c r="AV7" s="3">
         <v>3</v>
       </c>
-      <c r="AV7" s="4">
+      <c r="AW7" s="4">
         <v>5.3571428571428598E-3</v>
       </c>
-      <c r="AW7" s="36"/>
-      <c r="AX7" s="3">
-        <f>SUM(AG7,AI7,AK7,AM7,AO7,AQ7,AS7,AU7)</f>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="3">
+        <f>SUM(AH7,AJ7,AL7,AN7,AP7,AR7,AT7,AV7)</f>
         <v>1411</v>
       </c>
-      <c r="AZ7" s="35"/>
-      <c r="BA7" t="s">
+      <c r="AZ7" s="4">
+        <f>AY7/AY10</f>
+        <v>3.141909194148166E-2</v>
+      </c>
+      <c r="BB7" s="37"/>
+      <c r="BC7" t="s">
         <v>4</v>
       </c>
-      <c r="BB7" s="3">
+      <c r="BD7" s="3">
         <v>959</v>
       </c>
-      <c r="BC7" s="4">
+      <c r="BE7" s="4">
         <v>8.4404154198204503E-2</v>
       </c>
-      <c r="BD7" s="16">
+      <c r="BF7" s="16">
         <v>284</v>
       </c>
-      <c r="BE7" s="19">
+      <c r="BG7" s="19">
         <v>1.32989932100211E-2</v>
       </c>
-      <c r="BF7" s="3">
+      <c r="BH7" s="3">
         <v>73</v>
       </c>
-      <c r="BG7" s="4">
+      <c r="BI7" s="4">
         <v>1.01178101178101E-2</v>
       </c>
-      <c r="BH7" s="16">
+      <c r="BJ7" s="16">
         <v>44</v>
       </c>
-      <c r="BI7" s="19">
+      <c r="BK7" s="19">
         <v>1.7432646592709999E-2</v>
       </c>
-      <c r="BJ7" s="3">
+      <c r="BL7" s="3">
         <v>27</v>
       </c>
-      <c r="BK7" s="4">
+      <c r="BM7" s="4">
         <v>2.4884792626728099E-2</v>
       </c>
-      <c r="BL7" s="16">
+      <c r="BN7" s="16">
         <v>14</v>
       </c>
-      <c r="BM7" s="19">
+      <c r="BO7" s="19">
         <v>2.9106029106029101E-2</v>
       </c>
-      <c r="BN7" s="16">
+      <c r="BP7" s="16">
         <v>7</v>
       </c>
-      <c r="BO7" s="19">
+      <c r="BQ7" s="19">
         <v>2.1406727828746201E-2</v>
       </c>
-      <c r="BP7" s="3">
+      <c r="BR7" s="3">
         <v>3</v>
       </c>
-      <c r="BQ7" s="4">
+      <c r="BS7" s="4">
         <v>5.3571428571428598E-3</v>
       </c>
-      <c r="BR7" s="36"/>
-      <c r="BS7" s="3">
-        <f>SUM(BB7,BD7,BF7,BH7,BJ7,BL7,BN7,BP7)</f>
+      <c r="BT7" s="35"/>
+      <c r="BU7" s="3">
+        <f>SUM(BD7,BF7,BH7,BJ7,BL7,BN7,BP7,BR7)</f>
         <v>1411</v>
       </c>
-      <c r="BU7" s="12" t="s">
+      <c r="BV7" s="4">
+        <f>BU7/BU10</f>
+        <v>3.141909194148166E-2</v>
+      </c>
+      <c r="BX7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="BV7" s="13">
+      <c r="BY7" s="13">
         <v>63</v>
       </c>
-      <c r="BW7" s="14">
+      <c r="BZ7" s="14">
         <v>1.4019627478469899E-3</v>
       </c>
-      <c r="BY7" s="47" t="s">
+      <c r="CB7" t="s">
         <v>5</v>
       </c>
-      <c r="BZ7" s="48">
+      <c r="CC7" s="3">
         <v>409</v>
       </c>
-      <c r="CA7" s="49">
+      <c r="CD7" s="4">
         <v>2.4588192858001699E-2</v>
       </c>
-      <c r="CG7" s="25" t="s">
+      <c r="CJ7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="CH7" s="29">
-        <f>SUM(CH4:CH6)</f>
+      <c r="CK7" s="29">
+        <f>SUM(CK4:CK6)</f>
         <v>44937</v>
       </c>
-      <c r="CI7" s="30">
-        <f>SUM(CI4:CI6)</f>
+      <c r="CL7" s="30">
+        <f>SUM(CL4:CL6)</f>
         <v>1</v>
       </c>
-      <c r="CO7" t="s">
+      <c r="CR7" t="s">
         <v>28</v>
       </c>
-      <c r="CP7" s="1">
+      <c r="CS7" s="1">
         <v>925</v>
       </c>
-      <c r="CQ7" s="2">
+      <c r="CT7" s="2">
         <v>2.0584373678705699E-2</v>
       </c>
-      <c r="CS7" t="s">
+      <c r="CV7" t="s">
         <v>28</v>
       </c>
-      <c r="CT7" s="1">
+      <c r="CW7" s="1">
         <v>3318</v>
       </c>
-      <c r="CU7" s="2">
+      <c r="CX7" s="2">
         <v>7.3836704719941207E-2</v>
       </c>
-      <c r="CW7" t="s">
+      <c r="CZ7" t="s">
         <v>5</v>
       </c>
-      <c r="CX7" s="3">
+      <c r="DA7" s="3">
         <v>7374</v>
       </c>
-      <c r="CY7" s="4">
+      <c r="DB7" s="4">
         <v>0.20338702559576299</v>
       </c>
-      <c r="DA7" t="s">
+      <c r="DD7" t="s">
         <v>5</v>
       </c>
-      <c r="DB7" s="3">
+      <c r="DE7" s="3">
         <v>13458</v>
       </c>
-      <c r="DC7" s="4">
+      <c r="DF7" s="4">
         <v>0.30729535335083902</v>
       </c>
-      <c r="DE7" s="12" t="s">
+      <c r="DH7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="DF7" s="13">
+      <c r="DI7" s="13">
         <v>2420</v>
       </c>
-      <c r="DG7" s="14">
+      <c r="DJ7" s="14">
         <v>5.38531722188842E-2</v>
       </c>
-      <c r="DM7" t="s">
+      <c r="DP7" t="s">
         <v>5</v>
       </c>
-      <c r="DN7" s="3">
+      <c r="DQ7" s="3">
         <v>137</v>
       </c>
-      <c r="DO7" s="4">
+      <c r="DR7" s="4">
         <v>3.0487126421434498E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:119" x14ac:dyDescent="0.3">
-      <c r="B8" s="35"/>
+    <row r="8" spans="2:122" x14ac:dyDescent="0.3">
+      <c r="B8" s="37"/>
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -2699,204 +2759,216 @@
       <c r="S8" s="4">
         <v>0.15942028985507201</v>
       </c>
-      <c r="T8" s="36"/>
+      <c r="T8" s="35"/>
       <c r="U8" s="3">
         <f t="shared" si="0"/>
         <v>6415</v>
       </c>
-      <c r="AE8" s="35"/>
-      <c r="AF8" t="s">
+      <c r="V8" s="4">
+        <f>U8/U10</f>
+        <v>0.14280625987845327</v>
+      </c>
+      <c r="AF8" s="37"/>
+      <c r="AG8" t="s">
         <v>5</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AH8" s="3">
         <v>1195</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AI8" s="4">
         <v>0.10517514522091199</v>
       </c>
-      <c r="AI8" s="16">
+      <c r="AJ8" s="16">
         <v>375</v>
       </c>
-      <c r="AJ8" s="19">
+      <c r="AK8" s="19">
         <v>1.75602903301335E-2</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AL8" s="3">
         <v>421</v>
       </c>
-      <c r="AL8" s="4">
+      <c r="AM8" s="4">
         <v>5.8350658350658301E-2</v>
       </c>
-      <c r="AM8" s="16">
+      <c r="AN8" s="16">
         <v>120</v>
       </c>
-      <c r="AN8" s="19">
+      <c r="AO8" s="19">
         <v>4.7543581616481798E-2</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AP8" s="3">
         <v>47</v>
       </c>
-      <c r="AP8" s="4">
+      <c r="AQ8" s="4">
         <v>4.3317972350230403E-2</v>
       </c>
-      <c r="AQ8" s="16">
+      <c r="AR8" s="16">
         <v>17</v>
       </c>
-      <c r="AR8" s="19">
+      <c r="AS8" s="19">
         <v>3.5343035343035303E-2</v>
       </c>
-      <c r="AS8" s="16">
+      <c r="AT8" s="16">
         <v>13</v>
       </c>
-      <c r="AT8" s="19">
+      <c r="AU8" s="19">
         <v>3.97553516819572E-2</v>
       </c>
-      <c r="AU8" s="3">
+      <c r="AV8" s="3">
         <v>15</v>
       </c>
-      <c r="AV8" s="4">
+      <c r="AW8" s="4">
         <v>2.6785714285714302E-2</v>
       </c>
-      <c r="AW8" s="36"/>
-      <c r="AX8" s="3">
-        <f>SUM(AG8,AI8,AK8,AM8,AO8,AQ8,AS8,AU8)</f>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="3">
+        <f>SUM(AH8,AJ8,AL8,AN8,AP8,AR8,AT8,AV8)</f>
         <v>2203</v>
       </c>
-      <c r="AZ8" s="35"/>
-      <c r="BA8" t="s">
+      <c r="AZ8" s="4">
+        <f>AY8/AY10</f>
+        <v>4.9054755171569174E-2</v>
+      </c>
+      <c r="BB8" s="37"/>
+      <c r="BC8" t="s">
         <v>5</v>
       </c>
-      <c r="BB8" s="3">
+      <c r="BD8" s="3">
         <v>1195</v>
       </c>
-      <c r="BC8" s="4">
+      <c r="BE8" s="4">
         <v>0.10517514522091199</v>
       </c>
-      <c r="BD8" s="16">
+      <c r="BF8" s="16">
         <v>375</v>
       </c>
-      <c r="BE8" s="19">
+      <c r="BG8" s="19">
         <v>1.75602903301335E-2</v>
       </c>
-      <c r="BF8" s="3">
+      <c r="BH8" s="3">
         <v>421</v>
       </c>
-      <c r="BG8" s="4">
+      <c r="BI8" s="4">
         <v>5.8350658350658301E-2</v>
       </c>
-      <c r="BH8" s="16">
+      <c r="BJ8" s="16">
         <v>120</v>
       </c>
-      <c r="BI8" s="19">
+      <c r="BK8" s="19">
         <v>4.7543581616481798E-2</v>
       </c>
-      <c r="BJ8" s="3">
+      <c r="BL8" s="3">
         <v>47</v>
       </c>
-      <c r="BK8" s="4">
+      <c r="BM8" s="4">
         <v>4.3317972350230403E-2</v>
       </c>
-      <c r="BL8" s="16">
+      <c r="BN8" s="16">
         <v>17</v>
       </c>
-      <c r="BM8" s="19">
+      <c r="BO8" s="19">
         <v>3.5343035343035303E-2</v>
       </c>
-      <c r="BN8" s="16">
+      <c r="BP8" s="16">
         <v>13</v>
       </c>
-      <c r="BO8" s="19">
+      <c r="BQ8" s="19">
         <v>3.97553516819572E-2</v>
       </c>
-      <c r="BP8" s="3">
+      <c r="BR8" s="3">
         <v>15</v>
       </c>
-      <c r="BQ8" s="4">
+      <c r="BS8" s="4">
         <v>2.6785714285714302E-2</v>
       </c>
-      <c r="BR8" s="36"/>
-      <c r="BS8" s="3">
-        <f>SUM(BB8,BD8,BF8,BH8,BJ8,BL8,BN8,BP8)</f>
+      <c r="BT8" s="35"/>
+      <c r="BU8" s="3">
+        <f>SUM(BD8,BF8,BH8,BJ8,BL8,BN8,BP8,BR8)</f>
         <v>2203</v>
       </c>
-      <c r="BU8" s="25" t="s">
+      <c r="BV8" s="4">
+        <f>BU8/BU10</f>
+        <v>4.9054755171569174E-2</v>
+      </c>
+      <c r="BX8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BV8" s="29">
-        <f>SUM(BV4:BV7)</f>
+      <c r="BY8" s="29">
+        <f>SUM(BY4:BY7)</f>
         <v>44937</v>
       </c>
-      <c r="BW8" s="30">
-        <f>SUM(BW4:BW7)</f>
+      <c r="BZ8" s="30">
+        <f>SUM(BZ4:BZ7)</f>
         <v>1</v>
       </c>
-      <c r="BY8" s="12" t="s">
+      <c r="CB8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="BZ8" s="13">
+      <c r="CC8" s="13">
         <v>6429</v>
       </c>
-      <c r="CA8" s="14">
+      <c r="CD8" s="14">
         <v>0.38649753516893098</v>
       </c>
-      <c r="CO8" t="s">
+      <c r="CR8" t="s">
         <v>52</v>
       </c>
-      <c r="CP8" s="1">
+      <c r="CS8" s="1">
         <v>3193</v>
       </c>
-      <c r="CQ8" s="2">
+      <c r="CT8" s="2">
         <v>7.1055032601197193E-2</v>
       </c>
-      <c r="CS8" t="s">
+      <c r="CV8" t="s">
         <v>52</v>
       </c>
-      <c r="CT8" s="1">
+      <c r="CW8" s="1">
         <v>2813</v>
       </c>
-      <c r="CU8" s="2">
+      <c r="CX8" s="2">
         <v>6.2598749360215394E-2</v>
       </c>
-      <c r="CW8" s="12" t="s">
+      <c r="CZ8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="CX8" s="13">
+      <c r="DA8" s="13">
         <v>1910</v>
       </c>
-      <c r="CY8" s="14">
+      <c r="DB8" s="14">
         <v>5.2680935569285103E-2</v>
       </c>
-      <c r="DA8" s="12" t="s">
+      <c r="DD8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="DB8" s="13">
+      <c r="DE8" s="13">
         <v>2760</v>
       </c>
-      <c r="DC8" s="14">
+      <c r="DF8" s="14">
         <v>6.3020892795981304E-2</v>
       </c>
-      <c r="DE8" s="25" t="s">
+      <c r="DH8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="DF8" s="29">
-        <f>SUM(DF4:DF7)</f>
+      <c r="DI8" s="29">
+        <f>SUM(DI4:DI7)</f>
         <v>44937</v>
       </c>
-      <c r="DG8" s="30">
-        <f>SUM(DG4:DG7)</f>
+      <c r="DJ8" s="30">
+        <f>SUM(DJ4:DJ7)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="DM8" s="12" t="s">
+      <c r="DP8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="DN8" s="13">
+      <c r="DQ8" s="13">
         <v>17</v>
       </c>
-      <c r="DO8" s="14">
+      <c r="DR8" s="14">
         <v>3.7830740814918701E-4</v>
       </c>
     </row>
-    <row r="9" spans="2:119" x14ac:dyDescent="0.3">
-      <c r="B9" s="46"/>
+    <row r="9" spans="2:122" x14ac:dyDescent="0.3">
+      <c r="B9" s="38"/>
       <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
@@ -2948,441 +3020,472 @@
       <c r="S9" s="14">
         <v>8.6956521739130405E-2</v>
       </c>
-      <c r="T9" s="38"/>
+      <c r="T9" s="39"/>
       <c r="U9" s="13">
         <f t="shared" si="0"/>
         <v>5272</v>
       </c>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="12" t="s">
+      <c r="V9" s="50">
+        <f>U9/U10</f>
+        <v>0.11736159034749895</v>
+      </c>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AG9" s="13">
+      <c r="AH9" s="13">
         <v>406</v>
       </c>
-      <c r="AH9" s="14">
+      <c r="AI9" s="14">
         <v>3.5733145572962498E-2</v>
       </c>
-      <c r="AI9" s="17">
+      <c r="AJ9" s="17">
         <v>10657</v>
       </c>
-      <c r="AJ9" s="20">
+      <c r="AK9" s="20">
         <v>0.49904003746195302</v>
       </c>
-      <c r="AK9" s="13">
+      <c r="AL9" s="13">
         <v>3017</v>
       </c>
-      <c r="AL9" s="14">
+      <c r="AM9" s="14">
         <v>0.41815661815661798</v>
       </c>
-      <c r="AM9" s="17">
+      <c r="AN9" s="17">
         <v>1043</v>
       </c>
-      <c r="AN9" s="20">
+      <c r="AO9" s="20">
         <v>0.41323296354992101</v>
       </c>
-      <c r="AO9" s="13">
+      <c r="AP9" s="13">
         <v>402</v>
       </c>
-      <c r="AP9" s="14">
+      <c r="AQ9" s="14">
         <v>0.37050691244239597</v>
       </c>
-      <c r="AQ9" s="17">
+      <c r="AR9" s="17">
         <v>155</v>
       </c>
-      <c r="AR9" s="20">
+      <c r="AS9" s="20">
         <v>0.32224532224532199</v>
       </c>
-      <c r="AS9" s="17">
+      <c r="AT9" s="17">
         <v>109</v>
       </c>
-      <c r="AT9" s="20">
+      <c r="AU9" s="20">
         <v>0.33333333333333298</v>
       </c>
-      <c r="AU9" s="13">
+      <c r="AV9" s="13">
         <v>179</v>
       </c>
-      <c r="AV9" s="14">
+      <c r="AW9" s="14">
         <v>0.31964285714285701</v>
       </c>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="13">
-        <f>SUM(AG9,AI9,AK9,AM9,AO9,AQ9,AS9,AU9)</f>
+      <c r="AX9" s="39"/>
+      <c r="AY9" s="13">
+        <f>SUM(AH9,AJ9,AL9,AN9,AP9,AR9,AT9,AV9)</f>
         <v>15968</v>
       </c>
-      <c r="AZ9" s="46"/>
-      <c r="BA9" s="12" t="s">
+      <c r="AZ9" s="50">
+        <f>AY9/AY10</f>
+        <v>0.35556347280055223</v>
+      </c>
+      <c r="BB9" s="38"/>
+      <c r="BC9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="BB9" s="13">
+      <c r="BD9" s="13">
         <v>406</v>
       </c>
-      <c r="BC9" s="14">
+      <c r="BE9" s="14">
         <v>3.5733145572962498E-2</v>
       </c>
-      <c r="BD9" s="17">
+      <c r="BF9" s="17">
         <v>10657</v>
       </c>
-      <c r="BE9" s="20">
+      <c r="BG9" s="20">
         <v>0.49904003746195302</v>
       </c>
-      <c r="BF9" s="13">
+      <c r="BH9" s="13">
         <v>3017</v>
       </c>
-      <c r="BG9" s="14">
+      <c r="BI9" s="14">
         <v>0.41815661815661798</v>
       </c>
-      <c r="BH9" s="17">
+      <c r="BJ9" s="17">
         <v>1043</v>
       </c>
-      <c r="BI9" s="20">
+      <c r="BK9" s="20">
         <v>0.41323296354992101</v>
       </c>
-      <c r="BJ9" s="13">
+      <c r="BL9" s="13">
         <v>402</v>
       </c>
-      <c r="BK9" s="14">
+      <c r="BM9" s="14">
         <v>0.37050691244239597</v>
       </c>
-      <c r="BL9" s="17">
+      <c r="BN9" s="17">
         <v>155</v>
       </c>
-      <c r="BM9" s="20">
+      <c r="BO9" s="20">
         <v>0.32224532224532199</v>
       </c>
-      <c r="BN9" s="17">
+      <c r="BP9" s="17">
         <v>109</v>
       </c>
-      <c r="BO9" s="20">
+      <c r="BQ9" s="20">
         <v>0.33333333333333298</v>
       </c>
-      <c r="BP9" s="13">
+      <c r="BR9" s="13">
         <v>179</v>
       </c>
-      <c r="BQ9" s="14">
+      <c r="BS9" s="14">
         <v>0.31964285714285701</v>
       </c>
-      <c r="BR9" s="38"/>
-      <c r="BS9" s="13">
-        <f>SUM(BB9,BD9,BF9,BH9,BJ9,BL9,BN9,BP9)</f>
+      <c r="BT9" s="39"/>
+      <c r="BU9" s="13">
+        <f>SUM(BD9,BF9,BH9,BJ9,BL9,BN9,BP9,BR9)</f>
         <v>15968</v>
       </c>
-      <c r="BY9" s="50" t="s">
+      <c r="BV9" s="50">
+        <f>BU9/BU10</f>
+        <v>0.35556347280055223</v>
+      </c>
+      <c r="CB9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="BZ9" s="13">
-        <f>SUM(BZ4:BZ8)</f>
+      <c r="CC9" s="13">
+        <f>SUM(CC4:CC8)</f>
         <v>16634</v>
       </c>
-      <c r="CA9" s="14">
-        <f>SUM(CA4:CA8)</f>
+      <c r="CD9" s="14">
+        <f>SUM(CD4:CD8)</f>
         <v>1.0000000000000007</v>
       </c>
-      <c r="CO9" t="s">
+      <c r="CR9" t="s">
         <v>53</v>
       </c>
-      <c r="CP9" s="1">
+      <c r="CS9" s="1">
         <v>7255</v>
       </c>
-      <c r="CQ9" s="2">
+      <c r="CT9" s="2">
         <v>0.161448249771903</v>
       </c>
-      <c r="CS9" t="s">
+      <c r="CV9" t="s">
         <v>53</v>
       </c>
-      <c r="CT9" s="1">
+      <c r="CW9" s="1">
         <v>2047</v>
       </c>
-      <c r="CU9" s="2">
+      <c r="CX9" s="2">
         <v>4.5552662616552102E-2</v>
       </c>
-      <c r="CW9" s="25" t="s">
+      <c r="CZ9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="CX9" s="29">
-        <f>SUM(CX4:CX8)</f>
+      <c r="DA9" s="29">
+        <f>SUM(DA4:DA8)</f>
         <v>36256</v>
       </c>
-      <c r="CY9" s="30">
-        <f>SUM(CY4:CY8)</f>
+      <c r="DB9" s="30">
+        <f>SUM(DB4:DB8)</f>
         <v>1</v>
       </c>
-      <c r="DA9" s="25" t="s">
+      <c r="DD9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="DB9" s="29">
-        <f>SUM(DB4:DB8)</f>
+      <c r="DE9" s="29">
+        <f>SUM(DE4:DE8)</f>
         <v>43795</v>
       </c>
-      <c r="DC9" s="30">
-        <f>SUM(DC4:DC8)</f>
+      <c r="DF9" s="30">
+        <f>SUM(DF4:DF8)</f>
         <v>1</v>
       </c>
-      <c r="DM9" s="25" t="s">
+      <c r="DP9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="DN9" s="29">
-        <f>SUM(DN4:DN8)</f>
+      <c r="DQ9" s="29">
+        <f>SUM(DQ4:DQ8)</f>
         <v>44937</v>
       </c>
-      <c r="DO9" s="30">
-        <f>SUM(DO4:DO8)</f>
+      <c r="DR9" s="30">
+        <f>SUM(DR4:DR8)</f>
         <v>0.99999999999999956</v>
       </c>
     </row>
-    <row r="10" spans="2:119" x14ac:dyDescent="0.3">
-      <c r="AZ10" s="25"/>
-      <c r="BA10" s="25" t="s">
+    <row r="10" spans="2:122" x14ac:dyDescent="0.3">
+      <c r="U10" s="49">
+        <f>SUM(U5:U9)</f>
+        <v>44921</v>
+      </c>
+      <c r="AY10" s="25">
+        <f>SUM(AY5:AY9)</f>
+        <v>44909</v>
+      </c>
+      <c r="BB10" s="25"/>
+      <c r="BC10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BB10" s="25">
-        <f>SUM(BB5:BB9)</f>
+      <c r="BD10" s="25">
+        <f>SUM(BD5:BD9)</f>
         <v>11362</v>
-      </c>
-      <c r="BC10" s="25"/>
-      <c r="BD10" s="25">
-        <f t="shared" ref="BD10:BP10" si="1">SUM(BD5:BD9)</f>
-        <v>21355</v>
       </c>
       <c r="BE10" s="25"/>
       <c r="BF10" s="25">
-        <f t="shared" si="1"/>
-        <v>7215</v>
+        <f t="shared" ref="BF10:BR10" si="1">SUM(BF5:BF9)</f>
+        <v>21355</v>
       </c>
       <c r="BG10" s="25"/>
       <c r="BH10" s="25">
         <f t="shared" si="1"/>
-        <v>2524</v>
+        <v>7215</v>
       </c>
       <c r="BI10" s="25"/>
       <c r="BJ10" s="25">
         <f t="shared" si="1"/>
-        <v>1085</v>
+        <v>2524</v>
       </c>
       <c r="BK10" s="25"/>
       <c r="BL10" s="25">
         <f t="shared" si="1"/>
-        <v>481</v>
+        <v>1085</v>
       </c>
       <c r="BM10" s="25"/>
       <c r="BN10" s="25">
         <f t="shared" si="1"/>
-        <v>327</v>
+        <v>481</v>
       </c>
       <c r="BO10" s="25"/>
       <c r="BP10" s="25">
         <f t="shared" si="1"/>
+        <v>327</v>
+      </c>
+      <c r="BQ10" s="25"/>
+      <c r="BR10" s="25">
+        <f t="shared" si="1"/>
         <v>560</v>
       </c>
-      <c r="BQ10" s="25"/>
-      <c r="BR10" s="25"/>
-      <c r="BS10" s="25">
-        <f>SUM(BS5:BS9)</f>
+      <c r="BS10" s="25"/>
+      <c r="BT10" s="25"/>
+      <c r="BU10" s="25">
+        <f>SUM(BU5:BU9)</f>
         <v>44909</v>
       </c>
-      <c r="CO10" t="s">
+      <c r="BV10" s="53"/>
+      <c r="CR10" t="s">
         <v>54</v>
       </c>
-      <c r="CP10" s="1">
+      <c r="CS10" s="1">
         <v>10031</v>
       </c>
-      <c r="CQ10" s="2">
+      <c r="CT10" s="2">
         <v>0.22322362418496999</v>
       </c>
-      <c r="CS10" t="s">
+      <c r="CV10" t="s">
         <v>54</v>
       </c>
-      <c r="CT10" s="1">
+      <c r="CW10" s="1">
         <v>1438</v>
       </c>
-      <c r="CU10" s="2">
+      <c r="CX10" s="2">
         <v>3.2000356054031197E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:119" x14ac:dyDescent="0.3">
-      <c r="CO11" t="s">
+    <row r="11" spans="2:122" x14ac:dyDescent="0.3">
+      <c r="BU11" s="49"/>
+      <c r="CR11" t="s">
         <v>55</v>
       </c>
-      <c r="CP11" s="1">
+      <c r="CS11" s="1">
         <v>16941</v>
       </c>
-      <c r="CQ11" s="2">
+      <c r="CT11" s="2">
         <v>0.37699445890913902</v>
       </c>
-      <c r="CS11" t="s">
+      <c r="CV11" t="s">
         <v>55</v>
       </c>
-      <c r="CT11" s="1">
+      <c r="CW11" s="1">
         <v>877</v>
       </c>
-      <c r="CU11" s="2">
+      <c r="CX11" s="2">
         <v>1.9516211585107999E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:119" x14ac:dyDescent="0.3">
-      <c r="CO12" s="9" t="s">
+    <row r="12" spans="2:122" x14ac:dyDescent="0.3">
+      <c r="CR12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="CP12" s="22">
+      <c r="CS12" s="22">
         <v>5702</v>
       </c>
-      <c r="CQ12" s="23">
+      <c r="CT12" s="23">
         <v>0.12688875536862701</v>
       </c>
-      <c r="CS12" t="s">
+      <c r="CV12" t="s">
         <v>62</v>
       </c>
-      <c r="CT12" s="1">
+      <c r="CW12" s="1">
         <v>442</v>
       </c>
-      <c r="CU12" s="2">
+      <c r="CX12" s="2">
         <v>9.8359926118788497E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:119" x14ac:dyDescent="0.3">
-      <c r="CO13" t="s">
+    <row r="13" spans="2:122" x14ac:dyDescent="0.3">
+      <c r="CR13" t="s">
         <v>57</v>
       </c>
-      <c r="CP13" s="1">
+      <c r="CS13" s="1">
         <v>890</v>
       </c>
-      <c r="CQ13" s="2">
+      <c r="CT13" s="2">
         <v>1.9805505485457401E-2</v>
       </c>
-      <c r="CS13" t="s">
+      <c r="CV13" t="s">
         <v>63</v>
       </c>
-      <c r="CT13" s="1">
+      <c r="CW13" s="1">
         <v>118</v>
       </c>
-      <c r="CU13" s="2">
+      <c r="CX13" s="2">
         <v>2.6258984800943499E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:119" x14ac:dyDescent="0.3">
-      <c r="CO14" t="s">
+    <row r="14" spans="2:122" x14ac:dyDescent="0.3">
+      <c r="CR14" t="s">
         <v>58</v>
       </c>
-      <c r="CP14" s="1">
+      <c r="CS14" s="1">
         <v>4118</v>
       </c>
-      <c r="CQ14" s="2">
+      <c r="CT14" s="2">
         <v>9.1639406279902996E-2</v>
       </c>
-      <c r="CS14" t="s">
+      <c r="CV14" t="s">
         <v>64</v>
       </c>
-      <c r="CT14" s="1">
+      <c r="CW14" s="1">
         <v>66</v>
       </c>
-      <c r="CU14" s="2">
+      <c r="CX14" s="2">
         <v>1.4687228786968399E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:119" x14ac:dyDescent="0.3">
-      <c r="CO15" t="s">
+    <row r="15" spans="2:122" x14ac:dyDescent="0.3">
+      <c r="CR15" t="s">
         <v>59</v>
       </c>
-      <c r="CP15" s="1">
+      <c r="CS15" s="1">
         <v>17286</v>
       </c>
-      <c r="CQ15" s="2">
+      <c r="CT15" s="2">
         <v>0.38467187395687302</v>
       </c>
-      <c r="CS15" s="9" t="s">
+      <c r="CV15" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="CT15" s="22">
+      <c r="CW15" s="22">
         <v>12391</v>
       </c>
-      <c r="CU15" s="23">
+      <c r="CX15" s="23">
         <v>0.27574159378685698</v>
       </c>
     </row>
-    <row r="16" spans="2:119" x14ac:dyDescent="0.3">
-      <c r="CO16" s="12" t="s">
+    <row r="16" spans="2:122" x14ac:dyDescent="0.3">
+      <c r="CR16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="CP16" s="21">
+      <c r="CS16" s="21">
         <v>16941</v>
       </c>
-      <c r="CQ16" s="24">
+      <c r="CT16" s="24">
         <v>0.37699445890913902</v>
       </c>
-      <c r="CS16" t="s">
+      <c r="CV16" t="s">
         <v>67</v>
       </c>
-      <c r="CT16" s="1">
+      <c r="CW16" s="1">
         <v>21427</v>
       </c>
-      <c r="CU16" s="2">
+      <c r="CX16" s="2">
         <v>0.47682310790662502</v>
       </c>
     </row>
-    <row r="17" spans="93:99" x14ac:dyDescent="0.3">
-      <c r="CO17" s="25" t="s">
+    <row r="17" spans="96:102" x14ac:dyDescent="0.3">
+      <c r="CR17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="CP17" s="26">
-        <f>SUM(CP12:CP16)</f>
+      <c r="CS17" s="26">
+        <f>SUM(CS12:CS16)</f>
         <v>44937</v>
       </c>
-      <c r="CQ17" s="27">
-        <f>SUM(CQ12:CQ16)</f>
+      <c r="CT17" s="27">
+        <f>SUM(CT12:CT16)</f>
         <v>0.99999999999999933</v>
       </c>
-      <c r="CS17" t="s">
+      <c r="CV17" t="s">
         <v>68</v>
       </c>
-      <c r="CT17" s="1">
+      <c r="CW17" s="1">
         <v>10493</v>
       </c>
-      <c r="CU17" s="2">
+      <c r="CX17" s="2">
         <v>0.23350468433584801</v>
       </c>
     </row>
-    <row r="18" spans="93:99" x14ac:dyDescent="0.3">
-      <c r="CS18" s="12" t="s">
+    <row r="18" spans="96:102" x14ac:dyDescent="0.3">
+      <c r="CV18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="CT18" s="21">
+      <c r="CW18" s="21">
         <v>626</v>
       </c>
-      <c r="CU18" s="24">
+      <c r="CX18" s="24">
         <v>1.3930613970670001E-2</v>
       </c>
     </row>
-    <row r="19" spans="93:99" x14ac:dyDescent="0.3">
-      <c r="CS19" s="25" t="s">
+    <row r="19" spans="96:102" x14ac:dyDescent="0.3">
+      <c r="CV19" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="CT19" s="26">
-        <f>SUM(CT15:CT18)</f>
+      <c r="CW19" s="26">
+        <f>SUM(CW15:CW18)</f>
         <v>44937</v>
       </c>
-      <c r="CU19" s="27">
-        <f>SUM(CU15:CU18)</f>
+      <c r="CX19" s="27">
+        <f>SUM(CX15:CX18)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="DI1:DK2"/>
-    <mergeCell ref="DM1:DO2"/>
-    <mergeCell ref="AE5:AE9"/>
-    <mergeCell ref="AA1:AC2"/>
-    <mergeCell ref="CW1:CY2"/>
-    <mergeCell ref="DA1:DC2"/>
-    <mergeCell ref="DE1:DG2"/>
-    <mergeCell ref="B1:U2"/>
-    <mergeCell ref="W1:Y2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AX3:AX4"/>
+    <mergeCell ref="BT5:BT9"/>
+    <mergeCell ref="AF1:AY2"/>
+    <mergeCell ref="CR1:CT2"/>
+    <mergeCell ref="CV1:CX2"/>
+    <mergeCell ref="BX1:BZ2"/>
+    <mergeCell ref="CF1:CH2"/>
+    <mergeCell ref="CB1:CD2"/>
+    <mergeCell ref="CN1:CP2"/>
+    <mergeCell ref="CJ1:CL2"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AX5:AX9"/>
+    <mergeCell ref="BB1:BU2"/>
+    <mergeCell ref="BB3:BC4"/>
+    <mergeCell ref="BD3:BE3"/>
+    <mergeCell ref="BF3:BG3"/>
+    <mergeCell ref="BH3:BI3"/>
+    <mergeCell ref="BJ3:BK3"/>
+    <mergeCell ref="BL3:BM3"/>
+    <mergeCell ref="BN3:BO3"/>
+    <mergeCell ref="BP3:BQ3"/>
+    <mergeCell ref="BR3:BS3"/>
+    <mergeCell ref="BT3:BT4"/>
+    <mergeCell ref="BU3:BU4"/>
+    <mergeCell ref="BB5:BB9"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="T5:T9"/>
     <mergeCell ref="F3:G3"/>
@@ -3392,37 +3495,28 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B1:U2"/>
+    <mergeCell ref="X1:Z2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="B3:C4"/>
     <mergeCell ref="U3:U4"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AE3:AF4"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AW5:AW9"/>
-    <mergeCell ref="AZ1:BS2"/>
-    <mergeCell ref="AZ3:BA4"/>
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="BD3:BE3"/>
-    <mergeCell ref="BF3:BG3"/>
-    <mergeCell ref="BH3:BI3"/>
-    <mergeCell ref="BJ3:BK3"/>
-    <mergeCell ref="BL3:BM3"/>
-    <mergeCell ref="BN3:BO3"/>
-    <mergeCell ref="BP3:BQ3"/>
-    <mergeCell ref="BR3:BR4"/>
-    <mergeCell ref="BS3:BS4"/>
-    <mergeCell ref="AZ5:AZ9"/>
-    <mergeCell ref="BR5:BR9"/>
-    <mergeCell ref="AE1:AX2"/>
-    <mergeCell ref="CO1:CQ2"/>
-    <mergeCell ref="CS1:CU2"/>
-    <mergeCell ref="BU1:BW2"/>
-    <mergeCell ref="CC1:CE2"/>
-    <mergeCell ref="BY1:CA2"/>
-    <mergeCell ref="CK1:CM2"/>
-    <mergeCell ref="CG1:CI2"/>
+    <mergeCell ref="DL1:DN2"/>
+    <mergeCell ref="DP1:DR2"/>
+    <mergeCell ref="AF5:AF9"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="CZ1:DB2"/>
+    <mergeCell ref="DD1:DF2"/>
+    <mergeCell ref="DH1:DJ2"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AX3:AX4"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AF3:AG4"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
